--- a/Studie/auswertungQuantitativ.xlsx
+++ b/Studie/auswertungQuantitativ.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\masterarbeit\Studie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE10F42-C160-46B8-AD0D-6AA567C41111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D0AE03-2657-463F-ADE3-BDE94528295C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34390" yWindow="5900" windowWidth="7500" windowHeight="6000" xr2:uid="{BDE5BCD3-68C0-47F1-82EF-4767C0C1A60E}"/>
+    <workbookView xWindow="150" yWindow="870" windowWidth="23000" windowHeight="13220" activeTab="2" xr2:uid="{BDE5BCD3-68C0-47F1-82EF-4767C0C1A60E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -102,9 +103,6 @@
     <t>Enthaltung</t>
   </si>
   <si>
-    <t xml:space="preserve"> -&gt; swap</t>
-  </si>
-  <si>
     <t>delay disturbing</t>
   </si>
   <si>
@@ -112,6 +110,60 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Privacy is very important for me.</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>weiblich</t>
+  </si>
+  <si>
+    <t>19-25</t>
+  </si>
+  <si>
+    <t>26-30</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>höchster Abschluss</t>
+  </si>
+  <si>
+    <t>Abitur</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Arbeitsverhältnis</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>angestellt</t>
+  </si>
+  <si>
+    <t>selbständig</t>
+  </si>
+  <si>
+    <t>Technikaffinität</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>&gt;60</t>
   </si>
 </sst>
 </file>
@@ -210,8 +262,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>SUS score</a:t>
+              <a:t>System</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Usability Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -337,7 +394,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -376,13 +433,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>question</a:t>
+                  <a:t>statement</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> number</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -623,7 +675,2046 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>I would use a voice assistant more often,</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="de-DE"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>if</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> my privacy is guaranteed.</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22272291753004556"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DE9-4B02-A381-BB6231871A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="523121960"/>
+        <c:axId val="523122288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="523121960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Stongly</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>Disagree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.15401268591426071"/>
+              <c:y val="0.84995370370370371"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523122288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523122288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strongly</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="de-DE"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Agree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8472222222222221"/>
+              <c:y val="0.85624234470691163"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523121960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Altersstruktur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle3!$C$8:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41-50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51-60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&gt;60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle3!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58FE-44CE-8312-335BE9751212}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512914104"/>
+        <c:axId val="512912464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512914104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512912464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512912464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512914104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>höchster Abschlus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle3!$C$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Abitur</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bachelor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Master</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle3!$C$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1612-46EA-BE2A-C8ACCCD8D2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="516120960"/>
+        <c:axId val="516119976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516120960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516119976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516119976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516120960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Arbeitsverhältnis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle3!$C$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Student</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>angestellt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>selbständig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle3!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC17-424B-BD20-1F733C6FFE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="299630904"/>
+        <c:axId val="516121288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="299630904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516121288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516121288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299630904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Selbsteinschätzung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> der </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Technikaffinität</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37717344706911637"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle3!$C$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle3!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFEE-4239-8CED-A3CA905731FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="516115048"/>
+        <c:axId val="516113736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516115048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>hoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.85624868766404205"/>
+              <c:y val="0.86479148439778364"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516113736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516113736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>gering</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.21388888888888888"/>
+              <c:y val="0.87060549722951297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516115048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1179,6 +3270,2521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1212,6 +5818,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BCD41D-8151-4616-9928-BECFC34EDEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4114ED2-9EEC-47C6-B2E1-48E22162DD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E9B86E-3989-4A36-BE4E-A596F8BE9CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1471FC-6654-42F5-9C63-EEDC22097012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D20254A-5178-4EC9-99DA-C635C9146267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1519,8 +6315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53D059D-C520-44BB-B5B3-2762E99599ED}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,19 +7060,19 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2287,64 +7083,64 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>2</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -2356,30 +7152,30 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -2401,71 +7197,68 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
@@ -2473,27 +7266,27 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
         <v>25</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -2512,4 +7305,222 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1E8302-7683-4561-AADE-57AFCB3E895A}">
+  <dimension ref="B10:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E43D4F-F5F5-4C2B-B393-411A17A0988E}">
+  <dimension ref="C4:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>